--- a/副本waterqualitydata.xlsx
+++ b/副本waterqualitydata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\晗\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aa所有重要文件\大三下课程end\软件工程\大作业\SoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82976BEA-5D61-43A0-81B1-35EF41A941C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8494D04-43EC-4A19-8597-CC89338A7920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>监测时间</t>
   </si>
@@ -62,6 +62,22 @@
   </si>
   <si>
     <t>double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2024.6.27 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.6.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坏</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -81,6 +97,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -106,9 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -426,7 +449,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -478,7 +501,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" ht="15">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
       <c r="O2">
         <f>O1+0.1</f>
         <v>3.2</v>
@@ -487,7 +519,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
       <c r="O3">
         <f t="shared" ref="O3:O13" si="0">O2+0.1</f>
         <v>3.3000000000000003</v>
